--- a/products.xlsx
+++ b/products.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,20 +442,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>discount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
@@ -467,29 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cover SOFA BED Sarung SOFA BED stretch elastis</t>
+          <t>SIMPATI 100.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp 130.000</t>
+          <t>http://www.elevenia.co.id/prd-simpati-100-000-27801342</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Rp 97.600</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,21 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kabel Jupiter 13 SNI - Stop Kontak Kabel 1.5 Meter SNI 3 Lubang Ada ON/OFF</t>
+          <t>PLN 100.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp 15.000</t>
+          <t>http://www.elevenia.co.id/prd-pln-100-000-27801404</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>Rp 101.200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,29 +518,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BUY 1 GET 1 (2pcs)  Magic Hanger Gantungan Baju Celana Serbaguna 9 Lubang Multifungsi F549</t>
+          <t>PLN 50.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rp 20.000</t>
+          <t>http://www.elevenia.co.id/prd-pln-50-000-27801118</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 50.700</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,29 +541,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROMO 3PCS BUNDLING - Hanger Gantungan Baju Celana Serbaguna 9 Lubang Multifungsi Premium Quality</t>
+          <t>XL Xtra Combo M - 5GB   5GB YOUTUBE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rp 22.000</t>
+          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-m-5gb-5gb-youtube-27801391</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 56.700</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,29 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Buy 1 Get 1] LIGHT SWITCH 2W LED LIGHTS - LAMPU LED PORTABLE</t>
+          <t>Xtra Combo 10GB 10GB, 30hr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rp 30.000</t>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-10gb-10gb-30hr-23600521</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 86.200</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,25 +587,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Celana Panjang Chino Pria Slim Fit / Celana Chinos/Chino Pants</t>
+          <t>Telkomsel REG 50000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rp 69.000</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-reg-50000-5992119</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Rp 50.100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -639,25 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Celana pendek pria santai dewasa obral seru/Short Pants/Celana Murah/Celana Casual</t>
+          <t>SIMPATI 75.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rp 11.000</t>
+          <t>http://www.elevenia.co.id/prd-simpati-75-000-28689461</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>Rp 73.600</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -665,29 +641,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Boxer Pria / Celana Dalam Pria / Bahan  Cotton Spandex / Underwear / Pakaian Dalam / Size Lengkap</t>
+          <t>PLN 200000  (Masukan 11 digit nomor meter, bukan nomor HP)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rp 13.500</t>
+          <t>http://www.elevenia.co.id/prd-pln-200000-masukan-11-digit-nomor-meter-bukan-nomor-hp-2996589</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>646</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 202.400</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -695,17 +664,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bedong Bayi Polos Soft Pastel Isi 6 Pcs</t>
+          <t>SIMPATI 200.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-simpati-200-000-27801101</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rp 195.500</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -713,17 +687,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BP50 Backpack Ransel Campione Kulit PU Laptop Kuliah Sekolah Kerja</t>
+          <t>Pulsa Indosat 100.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rp 139.500</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-indosat-100-000-5992118</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Rp 98.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -731,11 +705,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -743,25 +714,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BLOUSE BATIK WANITA TERMURAH</t>
+          <t>SIMPATI 150.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rp 69.000</t>
+          <t>http://www.elevenia.co.id/prd-simpati-150-000-27801100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>Rp 146.500</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -769,17 +737,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lactacyd Baby Liquid Soap 250 mL</t>
+          <t>PLN 20.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-pln-20-000-27801403</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rp 20.400</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -787,29 +760,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Baju Koko Terbaru Polos Termurah Lengan Pendek Hamis Fit To L Kemeja Koko Terlaris YourFashion</t>
+          <t>XL 100.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rp 60.500</t>
+          <t>http://www.elevenia.co.id/prd-xl-100-000-27801383</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 99.400</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -817,21 +783,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lobster Laut Beku / Frozen Sea Lobster 500gr</t>
+          <t>TELKOMSEL 25.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rp 79.900</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+          <t>http://www.elevenia.co.id/prd-telkomsel-25-000-2964101</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rp 25.000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -843,29 +810,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ik34 Korea Head Band Bandana Bando kain</t>
+          <t>SIMPATI 10.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rp 5.800</t>
+          <t>http://www.elevenia.co.id/prd-simpati-10-000-27801099</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 10.700</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -873,25 +833,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JOHNSONS BABY Wash Top to Toe Sabun Mandi Bayi Pump 500 ml</t>
+          <t>XL Pulsa 50.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rp 50.000</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-50-000-23600007</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rp 50.100</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -899,21 +856,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LIPSTICK TERRACOTTA N°676, makeup organik Perancis</t>
+          <t>Indosat REG 50.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rp 159.200</t>
+          <t>http://www.elevenia.co.id/prd-indosat-reg-50-000-2964059</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Rp 49.600</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -921,29 +887,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kabel Jupiter 34 SNI - Stop Kontak Kabel 3 Meter SNI 4 Lubang Ada ON/OFF</t>
+          <t>SIMPATI 20.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rp 22.000</t>
+          <t>http://www.elevenia.co.id/prd-simpati-20-000-27801338</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 20.300</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -951,25 +910,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(6 pcs) Celana Dalam SOREX art 1239 SuperSoft</t>
+          <t>Pulsa Three 50.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rp 71.000</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-50-000-6185244</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+          <t>Rp 49.900</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -981,25 +937,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TS101 Chest Bag Tas Selempang Pria USB Port</t>
+          <t>Top Up Saldo Dana Nominal 50.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rp 39.500</t>
+          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-50-000-28972713</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Rp 51.600</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1011,25 +968,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#KaosYES Premium 100% Cotton# Kaos Polos T-Shirt O-NECK LENGAN PENDEK</t>
+          <t>Internet unlimited + 5GB,30 hari</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rp 33.000</t>
+          <t>http://www.elevenia.co.id/prd-internet-unlimited-5gb-30-hari-28024048</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>Rp 62.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1037,29 +991,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Portable Juicer Blender - Blender Tanpa Listrik - Manual Blender</t>
+          <t>XL Pulsa 25.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rp 65.900</t>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-25-000-23599990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 25.100</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1067,25 +1014,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Daging Sapi Wagyu Beef Mess / Wagyu Meltik Batik / Trim Wagyu 200gr</t>
+          <t>XL Pulsa 200.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rp 24.000</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-200-000-23600024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rp 200.000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1093,25 +1037,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cussons Kids X Carex Hand Sanitizer Bundling</t>
+          <t>Xtra Combo 15GB 15GB, 30hr</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-15gb-15gb-30hr-23600520</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rp 125.000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1119,17 +1060,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leedoo Sepatu Pria Sneakers Running Spatu Casual Young Lifestyle MR112 - Hitam Oren, 39</t>
+          <t>Pulsa Indosat 200.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rp 98.000</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-pulsa-indosat-200-000-17215861</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rp 188.000</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1137,25 +1083,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wardah Renew You Hydrafirm Sleeping Mask 30 g</t>
+          <t>Kuota MangoeSky 15 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rp 91.500</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-15-gb-ex-metrasat-27926710</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rp 1.098.900</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1163,21 +1106,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Geos Gendongan Kaos Permium Malilkids</t>
+          <t>Top Up Saldo Dana Nominal 100.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-100-000-28972714</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Rp 103.000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1189,21 +1137,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bandana Buddies Rattle SKK Baby Mainan Boneka Gigitan Teether Bayi - Lion</t>
+          <t>Boxer Pria / Celana Dalam Pria / Bahan  Cotton Spandex / Underwear / Pakaian Dalam / Size Lengkap</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rp 91.000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-boxer-pria-celana-dalam-pria-bahan-cotton-spandex-underwear-17172767</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rp 13.500</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1215,17 +1172,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tabita Skin Care DS original</t>
+          <t>Pulsa Three 100.000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-100-000-6185258</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rp 99.600</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1233,25 +1195,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sendal Pria Flat Men Sandal 17222 - (3 Color Options) Biru Putih Mocca</t>
+          <t>XL XTRA Combo 10GB, 10GB YouTube +30menit Telp All Operator</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rp 59.000</t>
+          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-10gb-10gb-youtube-30menit-telp-all-operator-13458778</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Rp 83.000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1263,29 +1226,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LB10 Lunch Box Good Night / Cooler bag / Tas Bekal</t>
+          <t>Telkomsel Data 50.000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rp 22.000</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-data-50-000-5992110</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 51.400</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1293,21 +1249,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sepeda Anak BMX 18 Senator</t>
+          <t>Dr. Kevin Sport Shoes Sepatu Sneakers Wanita Tanpa Tali 589-027 - (3 Warna)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rp 822.000</t>
+          <t>http://www.elevenia.co.id/prd-dr-kevin-sport-shoes-sepatu-sneakers-wanita-tanpa-tali-589-0-29271472</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1315,29 +1284,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Logitech Mouse Wireless M170 [Garansi Resmi]</t>
+          <t>SIMPATI 1.000.000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rp 108.000</t>
+          <t>http://www.elevenia.co.id/prd-simpati-1-000-000-27801345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 976.300</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1345,25 +1307,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Beauty Box, paket makeup organik dibuat di Perancis</t>
+          <t>GUNDAM SD CROSS SILHOUETTE RX-78-2 25762</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rp 499.000</t>
+          <t>http://www.elevenia.co.id/prd-gundam-sd-cross-silhouette-rx-78-2-25762-27429382</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>Rp 66.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1375,25 +1342,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>K500 | Celana Dalam Wanita | Sorex | Celana Sorex</t>
+          <t>[Calista] Celana panjang Olahraga dan Outdoor / Sport Pants</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rp 12.900</t>
+          <t>http://www.elevenia.co.id/prd-calista-celana-panjang-olahraga-dan-outdoor-sport-pants-19055563</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Rp 19.700</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1405,21 +1377,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sophie Paris Tas Selempang Wanita Craft Sling Bag - T6234B5</t>
+          <t>Pulsa Three 10.000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rp 126.900</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-10-000-18747916</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Rp 10.700</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1427,21 +1400,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alive Tas Pria Brun Bag-T2773B5</t>
+          <t>Celana pendek pria santai dewasa obral seru/Short Pants/Celana Murah/Celana Casual</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rp 79.900</t>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-santai-dewasa-obral-seru-short-pants-cela-16905235</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Rp 11.000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1449,17 +1431,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sepatu Eagle Commando – Sepatu Badminton</t>
+          <t>INDOSAT 20.000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rp 469.900</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-indosat-20-000-27801354</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rp 20.200</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1467,21 +1454,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Promo Happy Call Panci Presto Pressure Cooker Hc 8 Liter</t>
+          <t>Indosat REG 25000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rp 297.500</t>
+          <t>http://www.elevenia.co.id/prd-indosat-reg-25000-2964060</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Rp 25.200</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1489,29 +1485,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[Calista] Celana panjang Olahraga dan Outdoor / Sport Pants</t>
+          <t>SIMPATI 300.000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rp 19.700</t>
+          <t>http://www.elevenia.co.id/prd-simpati-300-000-27801343</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 294.000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1519,29 +1508,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Celana pendek santai pria wanita/Celana Pendek Unisex/Pakaian Pria/Celana Pendek bahan Babyterry</t>
+          <t>PLN 500.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rp 22.000</t>
+          <t>http://www.elevenia.co.id/prd-pln-500-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776620</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 505.800</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1549,25 +1531,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOREX - Celana Dalam Wanita SOREX art 1178 &amp; art 0839</t>
+          <t>Lactacyd Baby Liquid Soap 250 mL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rp 15.000</t>
+          <t>http://www.elevenia.co.id/prd-lactacyd-baby-liquid-soap-250-ml-29276358</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>Rp 99.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1575,25 +1554,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kaos Oblong Lengan Pendek / Kaos Dalam Pria /Pakaian Dalam / Kaos Murah Berkualitas/K455(Swan Brand)</t>
+          <t>Top Up Saldo Go Pay Nominal 100.000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Rp 16.500</t>
+          <t>http://www.elevenia.co.id/prd-top-up-saldo-go-pay-nominal-100-000-28972721</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
+          <t>Rp 103.000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1605,25 +1585,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Double Layer Bag / Tas 2 Layer - Multifunction Bag</t>
+          <t>Cussons Kids X Carex Hand Sanitizer Bundling</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rp 44.600</t>
+          <t>http://www.elevenia.co.id/prd-cussons-kids-x-carex-hand-sanitizer-bundling-29280127</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1635,25 +1616,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BS Snap n Grip Magic Wrench Kunci Pas Inggris Serbaguna Isi 2</t>
+          <t>BASIC BOY Akachan Baby Swaddle Bedong Kain Kaos Polos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rp 30.000</t>
+          <t>http://www.elevenia.co.id/prd-basic-boy-akachan-baby-swaddle-bedong-kain-kaos-polos-29280135</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Rp 109.500</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1665,29 +1647,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hotpan Satin Murah / Piyama Satin Hotpan Wanita - Stelan Hotpan</t>
+          <t>AXIS Pulsa 100.000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rp 49.900</t>
+          <t>http://www.elevenia.co.id/prd-axis-pulsa-100-000-23606842</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 99.800</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1695,17 +1670,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEPATU CONVERSE LOW X ELMO KAWS LOW WANITA GRADE ORI QUALITY 36-40 - Hitam, 37</t>
+          <t>XL Pulsa 150.000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-150-000-23606730</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Rp 150.000</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1713,25 +1693,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KAOS ATASAN WANITA BL9886</t>
+          <t>Pulsa Indosat 150.000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-pulsa-indosat-150-000-15719497</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rp 146.600</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1739,25 +1716,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BASIC BOY Akachan Baby Swaddle Bedong Kain Kaos Polos</t>
+          <t>Pulsa Smartfren 50.000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rp 109.500</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-pulsa-smartfren-50-000-15717986</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Rp 49.900</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1765,25 +1739,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Daging Sapi Wagyu Round Tenderloin Meltik / Meltique Beef Steak 200gr</t>
+          <t>PLN 1.000.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rp 42.900</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-pln-1-000-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776548</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Rp 1.011.500</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1791,25 +1762,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Freeknight Tas Selempang Pria Multifungsi Casual Nylon Reflektif TR703 - Hitam</t>
+          <t>Pulsa Three 20.000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-20-000-18747913</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rp 20.000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1817,25 +1785,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SETELAN BAJU BAYI LAKI LAKI - SUPERMAN SET</t>
+          <t>Bedong Bayi Polos Soft Pastel Isi 6 Pcs</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rp 50.000</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-bedong-bayi-polos-soft-pastel-isi-6-pcs-29285815</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Rp 100.000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1843,21 +1808,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>baby nail trimmer - baby set trimmer - gunting kuku bayi pemotong kuku</t>
+          <t>Smartband M4 Smartbracelet Anti Air Support Android dan iPhone Fitur Lengkap</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rp 105.000</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-smartband-m4-smartbracelet-anti-air-support-android-dan-ipho-28829606</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Rp 89.000</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1869,21 +1843,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tas Selempang Pria Multifungsi Tas Slempang Waterproof Haoshuai # 11 - Biru</t>
+          <t>Navy Club Tas Selempang Travel - Tas Punggung Tas Dada Tahan Air EJCB - Abu</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rp 110.000</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-navy-club-tas-selempang-travel-tas-punggung-tas-dada-tahan-a-29276521</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rp 95.000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1895,25 +1874,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HIGHLIGHTER SHINING PEARL N°02, makeup organik Perancis</t>
+          <t>Cetaphil Baby Ultra Moisturizing Bath &amp; Wash 230ml</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rp 169.200</t>
+          <t>http://www.elevenia.co.id/prd-cetaphil-baby-ultra-moisturizing-bath-wash-230ml-29276370</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Rp 91.000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1925,25 +1905,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sepatu Sendal Pria Men Sandals Bustong 1641 - Hitam dan Navy</t>
+          <t>Tas Bayi Tas Diaper Ransel Bayi Anello 185</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
+          <t>http://www.elevenia.co.id/prd-tas-bayi-tas-diaper-ransel-bayi-anello-185-29279507</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1955,25 +1936,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Powerlogic Keyboard Xenon Edge</t>
+          <t>Celana Panjang Chino Pria Slim Fit / Celana Chinos/Chino Pants</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rp 123.000</t>
+          <t>http://www.elevenia.co.id/prd-celana-panjang-chino-pria-slim-fit-celana-chinos-chino-pants-26294971</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>Rp 69.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1985,29 +1971,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>THE OLIVE HOUSE - RACK MICROWAVE OVEN SHELF JYC-018</t>
+          <t>Kuota MangoeSky 1 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rp 399.000</t>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-1-gb-ex-metrasat-27926718</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 110.000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2015,25 +1994,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PX Antena TV Digital Indoor DA-1203P</t>
+          <t>Sophie Paris Tas Wanita Simona Bag-T2429G1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rp 139.000</t>
+          <t>http://www.elevenia.co.id/prd-sophie-paris-tas-wanita-simona-bag-t2429g1-28999768</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>Rp 72.900</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2045,21 +2029,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>L'Oreal Vindy's Hair Bestie</t>
+          <t>XL XTRA Combo 15GB, 15GB YouTube +40menit Telp All Operator</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rp 105.000</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-15gb-15gb-youtube-40menit-telp-all-operator-14879277</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rp 119.000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2071,25 +2060,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sepatu Pria Men Sneakers 889-016 - (2 Warna) Biru Putih</t>
+          <t>Freeknight Tas Selempang Pria Multifungsi Casual Nylon Reflektif TR703 - Hitam</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rp 150.000</t>
+          <t>http://www.elevenia.co.id/prd-freeknight-tas-selempang-pria-multifungsi-casual-nylon-refle-29276523</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Rp 100.000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2101,25 +2091,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sepatu Pria Men Sneakers 889-018 (2 Warna) - Coffee &amp; Grey</t>
+          <t>JOHNSONS BABY Wash Top to Toe Sabun Mandi Bayi Pump 500 ml</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rp 175.000</t>
+          <t>http://www.elevenia.co.id/prd-johnsons-baby-wash-top-to-toe-sabun-mandi-bayi-pump-500-ml-29286090</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Rp 50.000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2131,29 +2122,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LIPSTICK RED FLOWER N°597, makeup organik Perancis</t>
+          <t>Telkomsel Telepon 30 menit All Operator + 170 menit tsel Masa aktif 3 hari</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rp 159.200</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-telepon-30-menit-all-operator-170-menit-tsel-masa-23956292</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 11.100</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2161,17 +2145,34 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kazel 3 in 1 piyama boy cactus XL &amp; XXL</t>
+          <t>THE OLIVE HOUSE - RAK SEPATU FABRIC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rp 131.000</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-the-olive-house-rak-sepatu-fabric-6404990</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2179,21 +2180,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dr. Kevin Shoes Sepatu Sneakers Wanita 589-023 - (2 Warna) Putih/ Kuning &amp; Putih/Orange</t>
+          <t>Olay Total Effects 7 in One Touch of Foundation BB Cream Spf15 50gr</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Rp 150.000</t>
+          <t>http://www.elevenia.co.id/prd-olay-total-effects-7-in-one-touch-of-foundation-bb-cream-spf-29259899</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>Rp 95.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2201,21 +2203,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Honey Life Raw Wild Forest Honey - 640 Ml</t>
+          <t>Paket HotRod 3GB, 30hr</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rp 155.000</t>
+          <t>http://www.elevenia.co.id/prd-paket-hotrod-3gb-30hr-23600057</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Rp 58.200</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2223,21 +2234,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mukena Rukuh Telekung Maxi Jumbo Syari Rayon Tatuis Tiara 377 dusty pink brown peach dusty purple</t>
+          <t>TERMURAH Sikat Gigi Bayi Pigeon Baby Training ToothBrush Set 123</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rp 202.500</t>
+          <t>http://www.elevenia.co.id/prd-termurah-sikat-gigi-bayi-pigeon-baby-training-toothbrush-set-29282605</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Rp 90.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2245,21 +2265,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alive Jam Tangan Pria David Multicolour - GAL354M4</t>
+          <t>Telkomsel Data 100.000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rp 199.900</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-data-100-000-18749437</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Rp 99.100</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2267,17 +2288,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rider Anti Bacteria 6pcs R325BW / Celana Dalam Pria</t>
+          <t>Kuota MangoeSky 10 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rp 116.000</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-10-gb-ex-metrasat-28013237</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Rp 878.900</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2285,21 +2311,34 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kutus Kutus Minyak Balur 100 mL Original</t>
+          <t>KK014 Kaos Kaki Kerja Pria Serat Arang Bambu</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Rp 135.000</t>
+          <t>http://www.elevenia.co.id/prd-kk014-kaos-kaki-kerja-pria-serat-arang-bambu-28711516</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+          <t>Rp 16.000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2307,21 +2346,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sophie Paris Tas Wanita Aignel Bag-T4668N1</t>
+          <t>SETELAN BAJU BAYI LAKI LAKI - SUPERMAN SET</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Rp 138.900</t>
+          <t>http://www.elevenia.co.id/prd-setelan-baju-bayi-laki-laki-superman-set-29282606</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>Rp 50.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2329,21 +2377,34 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MASCARA VOLUME BLACK, makeup organik Perancis</t>
+          <t>Dr. Kevin Sepatu Kasual Pria Men Casual Shoes 13385 -  Hitam, Coklat, Navy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rp 199.500</t>
+          <t>http://www.elevenia.co.id/prd-dr-kevin-sepatu-kasual-pria-men-casual-shoes-13385-hitam-cok-28697783</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+          <t>Rp 119.000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2351,21 +2412,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LIPSTICK PINK N°634, makeup organik Perancis</t>
+          <t>Telkomsel Data 200.000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rp 159.200</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-data-200-000-19931904</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Rp 198.100</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2373,21 +2435,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Celana Boxer Katun / Celana Pendek Pria Boxer /Celana Santai / Random Warna</t>
+          <t>Pulsa Telkomsel REG 200.000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rp 27.000</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-telkomsel-reg-200-000-16476039</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>Rp 199.900</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2395,29 +2458,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Topi AntiCorona / Topi Bucket AntiKorona Murah / Topi Pancing</t>
+          <t>Pulsa Three 150.000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rp 25.000</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-150-000-13389488</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 149.400</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2425,25 +2481,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Klinsen shower scrub mineral spa 500ml (Refill)</t>
+          <t>XL Paket Xtra Combo Kuota 20GB (10GB + 10GB) + 30 Mnt [MULLIACELL] XDC12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rp 20.000</t>
+          <t>http://www.elevenia.co.id/prd-xl-paket-xtra-combo-kuota-20gb-10gb-10gb-30-mnt-mulliacell-x-13464306</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>Rp 84.500</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2455,21 +2512,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PHILIPS LED Bulb 4W</t>
+          <t>Indosat Paket Data Freedom U 10GB+25GB(Apps+YouTube+IG+Sms+Telp),30hr</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rp 22.300</t>
+          <t>http://www.elevenia.co.id/prd-indosat-paket-data-freedom-u-10gb-25gb-apps-youtube-ig-sms-t-12176301</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>Rp 98.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2481,21 +2543,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CELANA CHINO JUMBO PRIA| BEST SELLER !! HIGH QUALITY</t>
+          <t>BEDONG BAYI INSTAN HANAROO BABY WRAP HOODIE SELIMUT KATUN KADO HADIAH</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rp 79.000</t>
+          <t>http://www.elevenia.co.id/prd-bedong-bayi-instan-hanaroo-baby-wrap-hoodie-selimut-katun-ka-29276353</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>Rp 90.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2507,29 +2574,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[Etude House] Dear Darling Water Gel Tint</t>
+          <t>Leedoo Sepatu Pria Sneakers Running Spatu Casual Young Lifestyle MR112 - Hitam Oren, 39</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rp 43.800</t>
+          <t>http://www.elevenia.co.id/prd-leedoo-sepatu-pria-sneakers-running-spatu-casual-young-lifes-29276529</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>847</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 98.000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2537,25 +2597,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EVERCLOTH - FLORAL COLLECTION / ATASAN BATIK STANDAR / BLOUSE BATIK MODERN MOTIF BUNGA / MIX</t>
+          <t>Baby Cape CuddleMe / Jaket Bayi Bolak Balik / Selimut</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rp 75.000</t>
+          <t>http://www.elevenia.co.id/prd-baby-cape-cuddleme-jaket-bayi-bolak-balik-selimut-29280139</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
+          <t>Rp 95.000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2567,29 +2628,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Salvo [1+1] Sepatu Pria Slip On A01 FREE Sandal Pria</t>
+          <t>Discover Tas Ransel Kasual- Backpack Daypack- Tas Pria Tas Wanita BCH</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
+          <t>http://www.elevenia.co.id/prd-discover-tas-ransel-kasual-backpack-daypack-tas-pria-tas-wan-28895256</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>Rp 45.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2597,25 +2655,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tas Selempang / Slempang Pria Sling Bag Kulit + USB Port + Earphone Hole HIGH QUALITY</t>
+          <t>Indosat Internet Unlimited   2GB, 30 hari</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-indosat-internet-unlimited-2gb-30-hari-23635882</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Rp 40.000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2623,29 +2678,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pakaian Dalam Pria / Kaos Dalam Pria / Singlet Pria / Underwear Jumbo Kings</t>
+          <t>Mix Super 10GB (2GB 3G + 8GB 4G) 30 Days</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rp 13.000</t>
+          <t>http://www.elevenia.co.id/prd-mix-super-10gb-2gb-3g-8gb-4g-30-days-22725192</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 50.100</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2653,29 +2701,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>THE OLIVE HOUSE - RAK SEPATU FABRIC</t>
+          <t>Pulsa Three 30.000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-30-000-18747912</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 30.000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2683,25 +2724,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PJ189 BAJU TIDUR KOREA</t>
+          <t>Celana Pendek Pria 7/8 Katun Kantong Jumbo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-7-8-katun-kantong-jumbo-29276974</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Rp 20.000</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2709,21 +2751,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Saikoro Beef Wagyu Meltik Cubes Steak 2cm×2cm pack 250gr</t>
+          <t>Kabel Jupiter 34 SNI - Stop Kontak Kabel 3 Meter SNI 4 Lubang Ada ON/OFF</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rp 48.500</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-kabel-jupiter-34-sni-stop-kontak-kabel-3-meter-sni-4-lubang-28761807</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Rp 22.000</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2735,17 +2786,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Olay Total Effects 7 in One Touch of Foundation BB Cream Spf15 50gr</t>
+          <t>BMH - Zakat Profesi Pecahan 10K</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-bmh-zakat-profesi-pecahan-10k-28635412</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Rp 10.000</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2753,21 +2809,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BAJU BL10609</t>
+          <t>Lobster Laut Beku / Frozen Sea Lobster 500gr</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-lobster-laut-beku-frozen-sea-lobster-500gr-29260652</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Rp 79.900</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2779,21 +2840,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cetaphil Baby Ultra Moisturizing Bath &amp; Wash 230ml</t>
+          <t>[Free Ongkir] BUY1GET1 Grab Bag / Kantong Belanjaan Supermarket</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Rp 91.000</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-free-ongkir-buy1get1-grab-bag-kantong-belanjaan-supermarket-13281745</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Rp 20.000</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2805,21 +2875,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tas Bayi Tas Diaper Ransel Bayi Anello 185</t>
+          <t>SOREX - Celana dalam Wanita SOREX art 1230</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-sorex-celana-dalam-wanita-sorex-art-1230-15170993</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Rp 12.000</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2831,21 +2910,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZWITSAL Baby Spa Gift Box / ZWITSAL Paket Perlengkapan Mandi Bayi</t>
+          <t>[HERBAL] Jelly Gamat Luxor 350ml Original</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-herbal-jelly-gamat-luxor-350ml-original-14471099</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rp 184.800</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2857,25 +2945,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Baby Cape CuddleMe / Jaket Bayi Bolak Balik / Selimut</t>
+          <t>Qurban Kambing (1/7 Sapi) Ternaknesia Reguler</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-qurban-kambing-1-7-sapi-ternaknesia-reguler-29189245</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Rp 1.600.000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2883,25 +2968,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TERMURAH Sikat Gigi Bayi Pigeon Baby Training ToothBrush Set 123</t>
+          <t>Voucher Hypermart Nominal Rp. 1.000.000,-</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-voucher-hypermart-nominal-rp-1-000-000-29118737</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Rp 1.042.000</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2909,21 +2995,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>D3179 dress batik</t>
+          <t>IK16 Korea Pearl Fashion Hair Pin Jepit Rambut</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rp 96.000</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-ik16-korea-pearl-fashion-hair-pin-jepit-rambut-29267971</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rp 2.500</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2935,25 +3030,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tempat makan Yooyee sekat 5 Lunch box Yooyee</t>
+          <t>SIMPATI 5.000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rp 60.000</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>http://www.elevenia.co.id/prd-simpati-5-000-27801036</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Rp 5.900</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2961,17 +3053,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Natural moms Kantong Asi 100ml breastmilk storage bags seperti gabag - PINK</t>
+          <t>Xtra Combo 5GB 5GB, 30hr</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rp 30.000</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-5gb-5gb-30hr-23600522</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Rp 57.200</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2979,17 +3084,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PERLAK BAYI KARET 55x80 CM printing lembut 2 lapis anti air</t>
+          <t>Scarlett Whitening Body Lotion</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rp 45.000</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>http://www.elevenia.co.id/prd-scarlett-whitening-body-lotion-29119406</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Rp 90.000</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2997,29 +3107,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Neckermann Sandal Pria Iowa 302 Dark Brown</t>
+          <t>Erha Acne Facial Mask 4 pcs - Masker Wajah Jerawat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rp 98.000</t>
+          <t>http://www.elevenia.co.id/prd-erha-acne-facial-mask-4-pcs-masker-wajah-jerawat-29259903</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 90.500</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3027,25 +3130,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[12PCS] Pipo Mickey disney PPG100 MKbK Karakter MIckey License - Hitam</t>
+          <t>Neckermann Sandal Pria Fresno 772 Black</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rp 13.500</t>
+          <t>http://www.elevenia.co.id/prd-neckermann-sandal-pria-fresno-772-black-24190430</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>Rp 66.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3057,25 +3165,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Buy 1 Get 1Free Johnson's Baby Cotton Touch Top To Toe Bath 500ml</t>
+          <t>Cute Baby Wrap - Bedong Bayi Lucu - Kain Bedong Instant</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>http://www.elevenia.co.id/prd-cute-baby-wrap-bedong-bayi-lucu-kain-bedong-instant-29276176</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Rp 90.000</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>rating</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,6 +493,11 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,6 +521,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,6 +549,11 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,6 +577,11 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -564,22 +589,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Xtra Combo 10GB 10GB, 30hr</t>
+          <t>Telkomsel REG 50000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xtra-combo-10gb-10gb-30hr-23600521</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-reg-50000-5992119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rp 86.200</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Rp 50.100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -587,28 +625,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Telkomsel REG 50000</t>
+          <t>Xtra Combo 10GB 10GB, 30hr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-reg-50000-5992119</t>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-10gb-10gb-30hr-23600521</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rp 50.100</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Rp 86.200</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -634,6 +669,11 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -657,6 +697,11 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -680,6 +725,11 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -707,6 +757,11 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -714,22 +769,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SIMPATI 150.000</t>
+          <t>PLN 20.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-simpati-150-000-27801100</t>
+          <t>http://www.elevenia.co.id/prd-pln-20-000-27801403</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rp 146.500</t>
+          <t>Rp 20.400</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -737,22 +797,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLN 20.000</t>
+          <t>XL 100.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pln-20-000-27801403</t>
+          <t>http://www.elevenia.co.id/prd-xl-100-000-27801383</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rp 20.400</t>
+          <t>Rp 99.400</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -760,22 +825,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XL 100.000</t>
+          <t>SIMPATI 150.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-100-000-27801383</t>
+          <t>http://www.elevenia.co.id/prd-simpati-150-000-27801100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rp 99.400</t>
+          <t>Rp 146.500</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -783,24 +853,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TELKOMSEL 25.000</t>
+          <t>SIMPATI 10.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-25-000-2964101</t>
+          <t>http://www.elevenia.co.id/prd-simpati-10-000-27801099</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rp 25.000</t>
+          <t>Rp 10.700</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -810,22 +881,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIMPATI 10.000</t>
+          <t>TELKOMSEL 25.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-simpati-10-000-27801099</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-25-000-2964101</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rp 10.700</t>
+          <t>Rp 25.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -833,22 +913,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XL Pulsa 50.000</t>
+          <t>Indosat REG 50.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-pulsa-50-000-23600007</t>
+          <t>http://www.elevenia.co.id/prd-indosat-reg-50-000-2964059</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rp 50.100</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Rp 49.600</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -856,28 +949,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Indosat REG 50.000</t>
+          <t>XL Pulsa 50.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-indosat-reg-50-000-2964059</t>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-50-000-23600007</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rp 49.600</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Rp 50.100</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -903,6 +993,11 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -930,6 +1025,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -937,28 +1037,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Top Up Saldo Dana Nominal 50.000</t>
+          <t>XL Pulsa 200.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-50-000-28972713</t>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-200-000-23600024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rp 51.600</t>
+          <t>Rp 200.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -968,22 +1065,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Internet unlimited + 5GB,30 hari</t>
+          <t>XL Pulsa 25.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-internet-unlimited-5gb-30-hari-28024048</t>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-25-000-23599990</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rp 62.000</t>
+          <t>Rp 25.100</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -991,22 +1093,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XL Pulsa 25.000</t>
+          <t>Top Up Saldo Dana Nominal 50.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-pulsa-25-000-23599990</t>
+          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-50-000-28972713</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rp 25.100</t>
+          <t>Rp 51.600</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1014,22 +1129,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XL Pulsa 200.000</t>
+          <t>Xtra Combo 15GB 15GB, 30hr</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-pulsa-200-000-23600024</t>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-15gb-15gb-30hr-23600520</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rp 200.000</t>
+          <t>Rp 125.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1037,22 +1157,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Xtra Combo 15GB 15GB, 30hr</t>
+          <t>Pulsa Indosat 200.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xtra-combo-15gb-15gb-30hr-23600520</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-indosat-200-000-17215861</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rp 125.000</t>
+          <t>Rp 188.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1060,22 +1185,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pulsa Indosat 200.000</t>
+          <t>Kuota MangoeSky 15 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-indosat-200-000-17215861</t>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-15-gb-ex-metrasat-27926710</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rp 188.000</t>
+          <t>Rp 1.098.900</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1083,22 +1213,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kuota MangoeSky 15 GB (ex. Metrasat)</t>
+          <t>SIMPATI 1.000.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-15-gb-ex-metrasat-27926710</t>
+          <t>http://www.elevenia.co.id/prd-simpati-1-000-000-27801345</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rp 1.098.900</t>
+          <t>Rp 976.300</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1106,28 +1241,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Top Up Saldo Dana Nominal 100.000</t>
+          <t>Pulsa Three 100.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-100-000-28972714</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-100-000-6185258</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rp 103.000</t>
+          <t>Rp 99.600</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1279,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rp 13.500</t>
+          <t>Rp 11.000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1163,6 +1295,11 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1172,22 +1309,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pulsa Three 100.000</t>
+          <t>XL XTRA Combo 10GB, 10GB YouTube +30menit Telp All Operator</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-three-100-000-6185258</t>
+          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-10gb-10gb-youtube-30menit-telp-all-operator-13458778</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rp 99.600</t>
+          <t>Rp 83.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1195,28 +1345,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>XL XTRA Combo 10GB, 10GB YouTube +30menit Telp All Operator</t>
+          <t>Dr. Kevin Sport Shoes Sepatu Sneakers Wanita Tanpa Tali 589-027 - (3 Warna)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-10gb-10gb-youtube-30menit-telp-all-operator-13458778</t>
+          <t>http://www.elevenia.co.id/prd-dr-kevin-sport-shoes-sepatu-sneakers-wanita-tanpa-tali-589-0-29271472</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rp 83.000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1226,22 +1385,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Telkomsel Data 50.000</t>
+          <t>PLN 500.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-data-50-000-5992110</t>
+          <t>http://www.elevenia.co.id/prd-pln-500-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776620</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rp 51.400</t>
+          <t>Rp 505.800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1249,32 +1413,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sport Shoes Sepatu Sneakers Wanita Tanpa Tali 589-027 - (3 Warna)</t>
+          <t>Top Up Saldo Dana Nominal 100.000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-dr-kevin-sport-shoes-sepatu-sneakers-wanita-tanpa-tali-589-0-29271472</t>
+          <t>http://www.elevenia.co.id/prd-top-up-saldo-dana-nominal-100-000-28972714</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+          <t>Rp 103.000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1449,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIMPATI 1.000.000</t>
+          <t>[Calista] Celana panjang Olahraga dan Outdoor / Sport Pants</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-simpati-1-000-000-27801345</t>
+          <t>http://www.elevenia.co.id/prd-calista-celana-panjang-olahraga-dan-outdoor-sport-pants-19055563</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rp 976.300</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>Rp 19.700</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1307,32 +1489,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GUNDAM SD CROSS SILHOUETTE RX-78-2 25762</t>
+          <t>Telkomsel Data 50.000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-gundam-sd-cross-silhouette-rx-78-2-25762-27429382</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-data-50-000-5992110</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rp 66.000</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 51.400</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1342,32 +1517,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[Calista] Celana panjang Olahraga dan Outdoor / Sport Pants</t>
+          <t>INDOSAT 20.000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-calista-celana-panjang-olahraga-dan-outdoor-sport-pants-19055563</t>
+          <t>http://www.elevenia.co.id/prd-indosat-20-000-27801354</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rp 19.700</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 20.200</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1393,6 +1561,11 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1400,28 +1573,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Celana pendek pria santai dewasa obral seru/Short Pants/Celana Murah/Celana Casual</t>
+          <t>XL Pulsa 150.000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-santai-dewasa-obral-seru-short-pants-cela-16905235</t>
+          <t>http://www.elevenia.co.id/prd-xl-pulsa-150-000-23606730</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rp 11.000</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
+          <t>Rp 150.000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1601,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INDOSAT 20.000</t>
+          <t>PLN 1.000.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-indosat-20-000-27801354</t>
+          <t>http://www.elevenia.co.id/prd-pln-1-000-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rp 20.200</t>
+          <t>Rp 1.011.500</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1454,28 +1629,33 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Indosat REG 25000</t>
+          <t>Celana pendek pria santai dewasa obral seru/Short Pants/Celana Murah/Celana Casual</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-indosat-reg-25000-2964060</t>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-santai-dewasa-obral-seru-short-pants-cela-16905235</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rp 25.200</t>
+          <t>Rp 11.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1485,22 +1665,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIMPATI 300.000</t>
+          <t>Indosat REG 25000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-simpati-300-000-27801343</t>
+          <t>http://www.elevenia.co.id/prd-indosat-reg-25000-2964060</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rp 294.000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>Rp 25.200</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1508,22 +1701,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PLN 500.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
+          <t>Pulsa Smartfren 50.000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pln-500-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776620</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-smartfren-50-000-15717986</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rp 505.800</t>
+          <t>Rp 49.900</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1531,22 +1729,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lactacyd Baby Liquid Soap 250 mL</t>
+          <t>SIMPATI 300.000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-lactacyd-baby-liquid-soap-250-ml-29276358</t>
+          <t>http://www.elevenia.co.id/prd-simpati-300-000-27801343</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
+          <t>Rp 294.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1578,6 +1781,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1585,28 +1793,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cussons Kids X Carex Hand Sanitizer Bundling</t>
+          <t>GUNDAM MECHA COSD SILHOUETTE CROSSBONE 0483139</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-cussons-kids-x-carex-hand-sanitizer-bundling-29280127</t>
+          <t>http://www.elevenia.co.id/prd-gundam-mecha-cosd-silhouette-crossbone-0483139-27429409</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
+          <t>Rp 132.000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1616,28 +1829,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BASIC BOY Akachan Baby Swaddle Bedong Kain Kaos Polos</t>
+          <t>Pulsa Indosat 150.000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-basic-boy-akachan-baby-swaddle-bedong-kain-kaos-polos-29280135</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-indosat-150-000-15719497</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rp 109.500</t>
+          <t>Rp 146.600</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1647,22 +1857,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AXIS Pulsa 100.000</t>
+          <t>SIMPATI 500.000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-axis-pulsa-100-000-23606842</t>
+          <t>http://www.elevenia.co.id/prd-simpati-500-000-27801344</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rp 99.800</t>
+          <t>Rp 487.900</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1670,22 +1885,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XL Pulsa 150.000</t>
+          <t>Smartband M4 Smartbracelet Anti Air Support Android dan iPhone Fitur Lengkap</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-pulsa-150-000-23606730</t>
+          <t>http://www.elevenia.co.id/prd-smartband-m4-smartbracelet-anti-air-support-android-dan-ipho-28829606</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rp 150.000</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+          <t>Rp 65.000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1693,22 +1925,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pulsa Indosat 150.000</t>
+          <t>AXIS Pulsa 100.000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-indosat-150-000-15719497</t>
+          <t>http://www.elevenia.co.id/prd-axis-pulsa-100-000-23606842</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rp 146.600</t>
+          <t>Rp 99.800</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1716,22 +1953,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pulsa Smartfren 50.000</t>
+          <t>Pulsa Three 20.000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-smartfren-50-000-15717986</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-20-000-18747913</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rp 49.900</t>
+          <t>Rp 20.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1739,22 +1981,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLN 1.000.000 (Masukan 11 digit nomor meter, bukan nomor HP)</t>
+          <t>JOHNSONS BABY Wash Top to Toe Sabun Mandi Bayi Pump 500 ml</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pln-1-000-000-masukan-11-digit-nomor-meter-bukan-nomor-hp-14776548</t>
+          <t>http://www.elevenia.co.id/prd-johnsons-baby-wash-top-to-toe-sabun-mandi-bayi-pump-500-ml-29286090</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rp 1.011.500</t>
+          <t>Rp 50.000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1762,22 +2017,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pulsa Three 20.000</t>
+          <t>Bedong Bayi Polos Soft Pastel Isi 6 Pcs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-three-20-000-18747913</t>
+          <t>http://www.elevenia.co.id/prd-bedong-bayi-polos-soft-pastel-isi-6-pcs-29285815</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rp 20.000</t>
+          <t>Rp 100.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1785,22 +2045,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bedong Bayi Polos Soft Pastel Isi 6 Pcs</t>
+          <t>Cussons Kids X Carex Hand Sanitizer Bundling</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-bedong-bayi-polos-soft-pastel-isi-6-pcs-29285815</t>
+          <t>http://www.elevenia.co.id/prd-cussons-kids-x-carex-hand-sanitizer-bundling-29280127</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
+          <t>Rp 99.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1808,32 +2081,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Smartband M4 Smartbracelet Anti Air Support Android dan iPhone Fitur Lengkap</t>
+          <t>AXIS Pulsa 50.000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-smartband-m4-smartbracelet-anti-air-support-android-dan-ipho-28829606</t>
+          <t>http://www.elevenia.co.id/prd-axis-pulsa-50-000-23606844</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rp 89.000</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 50.200</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1843,28 +2109,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Navy Club Tas Selempang Travel - Tas Punggung Tas Dada Tahan Air EJCB - Abu</t>
+          <t>XL XTRA Combo 15GB, 15GB YouTube +40menit Telp All Operator</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-navy-club-tas-selempang-travel-tas-punggung-tas-dada-tahan-a-29276521</t>
+          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-15gb-15gb-youtube-40menit-telp-all-operator-14879277</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
+          <t>Rp 119.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1874,17 +2145,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cetaphil Baby Ultra Moisturizing Bath &amp; Wash 230ml</t>
+          <t>BASIC BOY Akachan Baby Swaddle Bedong Kain Kaos Polos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-cetaphil-baby-ultra-moisturizing-bath-wash-230ml-29276370</t>
+          <t>http://www.elevenia.co.id/prd-basic-boy-akachan-baby-swaddle-bedong-kain-kaos-polos-29280135</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rp 91.000</t>
+          <t>Rp 109.500</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1896,6 +2167,11 @@
       <c r="G56" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1905,28 +2181,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tas Bayi Tas Diaper Ransel Bayi Anello 185</t>
+          <t>SETELAN BAJU BAYI LAKI LAKI - SUPERMAN SET</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-tas-bayi-tas-diaper-ransel-bayi-anello-185-29279507</t>
+          <t>http://www.elevenia.co.id/prd-setelan-baju-bayi-laki-laki-superman-set-29282606</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rp 99.000</t>
+          <t>Rp 50.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1936,32 +2217,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Celana Panjang Chino Pria Slim Fit / Celana Chinos/Chino Pants</t>
+          <t>Pulsa Three 30.000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-celana-panjang-chino-pria-slim-fit-celana-chinos-chino-pants-26294971</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-30-000-18747912</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rp 69.000</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 30.000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1971,22 +2245,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kuota MangoeSky 1 GB (ex. Metrasat)</t>
+          <t>XL Paket Xtra Combo Kuota 20GB (10GB + 10GB) + 30 Mnt [MULLIACELL] XDC12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-1-gb-ex-metrasat-27926718</t>
+          <t>http://www.elevenia.co.id/prd-xl-paket-xtra-combo-kuota-20gb-10gb-10gb-30-mnt-mulliacell-x-13464306</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rp 110.000</t>
+          <t>Rp 84.500</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1994,32 +2281,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sophie Paris Tas Wanita Simona Bag-T2429G1</t>
+          <t>Indosat Paket Data Freedom U 10GB+25GB(Apps+YouTube+IG+Sms+Telp),30hr</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-sophie-paris-tas-wanita-simona-bag-t2429g1-28999768</t>
+          <t>http://www.elevenia.co.id/prd-indosat-paket-data-freedom-u-10gb-25gb-apps-youtube-ig-sms-t-12176301</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rp 72.900</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
+          <t>Rp 98.000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2029,28 +2317,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>XL XTRA Combo 15GB, 15GB YouTube +40menit Telp All Operator</t>
+          <t>THE OLIVE HOUSE - RAK SEPATU FABRIC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-xtra-combo-15gb-15gb-youtube-40menit-telp-all-operator-14879277</t>
+          <t>http://www.elevenia.co.id/prd-the-olive-house-rak-sepatu-fabric-6404990</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rp 119.000</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>Rp 99.000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2060,28 +2357,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Freeknight Tas Selempang Pria Multifungsi Casual Nylon Reflektif TR703 - Hitam</t>
+          <t>Olay Total Effects 7 in One Touch of Foundation BB Cream Spf15 50gr</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-freeknight-tas-selempang-pria-multifungsi-casual-nylon-refle-29276523</t>
+          <t>http://www.elevenia.co.id/prd-olay-total-effects-7-in-one-touch-of-foundation-bb-cream-spf-29259899</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rp 100.000</t>
+          <t>Rp 95.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2091,28 +2385,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOHNSONS BABY Wash Top to Toe Sabun Mandi Bayi Pump 500 ml</t>
+          <t>Lactacyd Baby Liquid Soap 250 mL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-johnsons-baby-wash-top-to-toe-sabun-mandi-bayi-pump-500-ml-29286090</t>
+          <t>http://www.elevenia.co.id/prd-lactacyd-baby-liquid-soap-250-ml-29276358</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rp 50.000</t>
+          <t>Rp 99.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2413,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Telkomsel Telepon 30 menit All Operator + 170 menit tsel Masa aktif 3 hari</t>
+          <t>Cetaphil Baby Ultra Moisturizing Bath &amp; Wash 230ml</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-telepon-30-menit-all-operator-170-menit-tsel-masa-23956292</t>
+          <t>http://www.elevenia.co.id/prd-cetaphil-baby-ultra-moisturizing-bath-wash-230ml-29276370</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rp 11.100</t>
+          <t>Rp 91.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2145,12 +2449,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>THE OLIVE HOUSE - RAK SEPATU FABRIC</t>
+          <t>Tas Bayi Tas Diaper Ransel Bayi Anello 185</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-the-olive-house-rak-sepatu-fabric-6404990</t>
+          <t>http://www.elevenia.co.id/prd-tas-bayi-tas-diaper-ransel-bayi-anello-185-29279507</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2158,19 +2462,20 @@
           <t>Rp 99.000</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2180,22 +2485,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Olay Total Effects 7 in One Touch of Foundation BB Cream Spf15 50gr</t>
+          <t>Celana Panjang Chino Pria Slim Fit / Celana Chinos/Chino Pants</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-olay-total-effects-7-in-one-touch-of-foundation-bb-cream-spf-29259899</t>
+          <t>http://www.elevenia.co.id/prd-celana-panjang-chino-pria-slim-fit-celana-chinos-chino-pants-26294971</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+          <t>Rp 69.000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2203,28 +2525,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Paket HotRod 3GB, 30hr</t>
+          <t>Tabita Skin Care DS original</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-paket-hotrod-3gb-30hr-23600057</t>
+          <t>http://www.elevenia.co.id/prd-tabita-skin-care-ds-original-29286055</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rp 58.200</t>
+          <t>Rp 95.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2234,28 +2561,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TERMURAH Sikat Gigi Bayi Pigeon Baby Training ToothBrush Set 123</t>
+          <t>Telkomsel Data 100.000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-termurah-sikat-gigi-bayi-pigeon-baby-training-toothbrush-set-29282605</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-data-100-000-18749437</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
+          <t>Rp 99.100</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2589,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Telkomsel Data 100.000</t>
+          <t>Kuota MangoeSky 10 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-data-100-000-18749437</t>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-10-gb-ex-metrasat-28013237</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rp 99.100</t>
+          <t>Rp 878.900</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2288,22 +2617,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Kuota MangoeSky 10 GB (ex. Metrasat)</t>
+          <t>Telkomsel Telepon 30 menit All Operator + 170 menit tsel Masa aktif 3 hari</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-10-gb-ex-metrasat-28013237</t>
+          <t>http://www.elevenia.co.id/prd-telkomsel-telepon-30-menit-all-operator-170-menit-tsel-masa-23956292</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rp 878.900</t>
+          <t>Rp 11.100</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2311,32 +2645,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KK014 Kaos Kaki Kerja Pria Serat Arang Bambu</t>
+          <t>Pulsa Three 15.000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-kk014-kaos-kaki-kerja-pria-serat-arang-bambu-28711516</t>
+          <t>http://www.elevenia.co.id/prd-pulsa-three-15-000-18747915</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rp 16.000</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 15.000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2346,28 +2673,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SETELAN BAJU BAYI LAKI LAKI - SUPERMAN SET</t>
+          <t>Sophie Paris Tas Selempang Wanita Craft Sling Bag - T6234B5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-setelan-baju-bayi-laki-laki-superman-set-29282606</t>
+          <t>http://www.elevenia.co.id/prd-sophie-paris-tas-selempang-wanita-craft-sling-bag-t6234b5-29245054</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rp 50.000</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 126.900</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2377,32 +2705,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dr. Kevin Sepatu Kasual Pria Men Casual Shoes 13385 -  Hitam, Coklat, Navy</t>
+          <t>Kuota MangoeSky 1 GB (ex. Metrasat)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-dr-kevin-sepatu-kasual-pria-men-casual-shoes-13385-hitam-cok-28697783</t>
+          <t>http://www.elevenia.co.id/prd-kuota-mangoesky-1-gb-ex-metrasat-27926718</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rp 119.000</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 110.000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2412,22 +2733,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Telkomsel Data 200.000</t>
+          <t>BMH - Zakat Profesi Pecahan 10K</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-telkomsel-data-200-000-19931904</t>
+          <t>http://www.elevenia.co.id/prd-bmh-zakat-profesi-pecahan-10k-28635412</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rp 198.100</t>
+          <t>Rp 10.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2435,22 +2761,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pulsa Telkomsel REG 200.000</t>
+          <t>KK014 Kaos Kaki Kerja Pria Serat Arang Bambu</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-telkomsel-reg-200-000-16476039</t>
+          <t>http://www.elevenia.co.id/prd-kk014-kaos-kaki-kerja-pria-serat-arang-bambu-28711516</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rp 199.900</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+          <t>Rp 16.000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2458,22 +2801,35 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pulsa Three 150.000</t>
+          <t>Freeknight Tas Selempang Pria Multifungsi Casual Nylon Reflektif TR703 - Hitam</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-three-150-000-13389488</t>
+          <t>http://www.elevenia.co.id/prd-freeknight-tas-selempang-pria-multifungsi-casual-nylon-refle-29276523</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rp 149.400</t>
+          <t>Rp 100.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2481,28 +2837,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>XL Paket Xtra Combo Kuota 20GB (10GB + 10GB) + 30 Mnt [MULLIACELL] XDC12</t>
+          <t>L'Oreal Vindy's Hair Bestie</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xl-paket-xtra-combo-kuota-20gb-10gb-10gb-30-mnt-mulliacell-x-13464306</t>
+          <t>http://www.elevenia.co.id/prd-l-oreal-vindy-s-hair-bestie-29286111</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rp 84.500</t>
+          <t>Rp 105.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2512,28 +2873,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Indosat Paket Data Freedom U 10GB+25GB(Apps+YouTube+IG+Sms+Telp),30hr</t>
+          <t>Sophie Paris Tas Selempang Wanita Geana - T5326B5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-indosat-paket-data-freedom-u-10gb-25gb-apps-youtube-ig-sms-t-12176301</t>
+          <t>http://www.elevenia.co.id/prd-sophie-paris-tas-selempang-wanita-geana-t5326b5-29188726</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rp 98.000</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Rp 114.900</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2543,28 +2913,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BEDONG BAYI INSTAN HANAROO BABY WRAP HOODIE SELIMUT KATUN KADO HADIAH</t>
+          <t>Alive Jam Tangan Pria David Multicolour - GAL354M4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-bedong-bayi-instan-hanaroo-baby-wrap-hoodie-selimut-katun-ka-29276353</t>
+          <t>http://www.elevenia.co.id/prd-alive-jam-tangan-pria-david-multicolour-gal354m4-29189107</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 165.900</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2574,22 +2945,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Leedoo Sepatu Pria Sneakers Running Spatu Casual Young Lifestyle MR112 - Hitam Oren, 39</t>
+          <t>Indosat Internet Unlimited   10GB, 30 hari</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-leedoo-sepatu-pria-sneakers-running-spatu-casual-young-lifes-29276529</t>
+          <t>http://www.elevenia.co.id/prd-indosat-internet-unlimited-10gb-30-hari-23635874</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rp 98.000</t>
+          <t>Rp 100.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2597,28 +2973,33 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Baby Cape CuddleMe / Jaket Bayi Bolak Balik / Selimut</t>
+          <t>ZWITSAL Baby Spa Gift Box / ZWITSAL Paket Perlengkapan Mandi Bayi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-baby-cape-cuddleme-jaket-bayi-bolak-balik-selimut-29280139</t>
+          <t>http://www.elevenia.co.id/prd-zwitsal-baby-spa-gift-box-zwitsal-paket-perlengkapan-mandi-b-29276356</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rp 95.000</t>
+          <t>Rp 99.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2628,26 +3009,35 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Discover Tas Ransel Kasual- Backpack Daypack- Tas Pria Tas Wanita BCH</t>
+          <t>Paket HotRod 3GB, 30hr</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-discover-tas-ransel-kasual-backpack-daypack-tas-pria-tas-wan-28895256</t>
+          <t>http://www.elevenia.co.id/prd-paket-hotrod-3gb-30hr-23600057</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rp 45.000</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+          <t>Rp 58.200</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2655,22 +3045,35 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Indosat Internet Unlimited   2GB, 30 hari</t>
+          <t>TERMURAH Sikat Gigi Bayi Pigeon Baby Training ToothBrush Set 123</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-indosat-internet-unlimited-2gb-30-hari-23635882</t>
+          <t>http://www.elevenia.co.id/prd-termurah-sikat-gigi-bayi-pigeon-baby-training-toothbrush-set-29282605</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rp 40.000</t>
+          <t>Rp 90.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2678,22 +3081,35 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mix Super 10GB (2GB 3G + 8GB 4G) 30 Days</t>
+          <t>Geos Gendongan Kaos Permium Malilkids</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-mix-super-10gb-2gb-3g-8gb-4g-30-days-22725192</t>
+          <t>http://www.elevenia.co.id/prd-geos-gendongan-kaos-permium-malilkids-29286086</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rp 50.100</t>
+          <t>Rp 95.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2701,22 +3117,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pulsa Three 30.000</t>
+          <t>Powerbank Fan  Kipas VIVAN ROBOT RT-BF07  BF07 2000mAh #DC020</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-pulsa-three-30-000-18747912</t>
+          <t>http://www.elevenia.co.id/prd-powerbank-fan-kipas-vivan-robot-rt-bf07-bf07-2000mah-dc020-29285818</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rp 30.000</t>
+          <t>Rp 95.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2724,26 +3145,35 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria 7/8 Katun Kantong Jumbo</t>
+          <t>GUNDAM SD CROSS SILHOUETTE OO DIVER ACE 0484347</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-7-8-katun-kantong-jumbo-29276974</t>
+          <t>http://www.elevenia.co.id/prd-gundam-sd-cross-silhouette-oo-diver-ace-0484347-27721208</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rp 20.000</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+          <t>Rp 165.000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2751,32 +3181,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kabel Jupiter 34 SNI - Stop Kontak Kabel 3 Meter SNI 4 Lubang Ada ON/OFF</t>
+          <t>GUNDAM SDSS 020 ZHUGE LIANG FREEDOM 58185</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-kabel-jupiter-34-sni-stop-kontak-kabel-3-meter-sni-4-lubang-28761807</t>
+          <t>http://www.elevenia.co.id/prd-gundam-sdss-020-zhuge-liang-freedom-58185-28913625</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rp 22.000</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>Rp 132.000</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2786,22 +3217,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BMH - Zakat Profesi Pecahan 10K</t>
+          <t>Freedom 30GB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-bmh-zakat-profesi-pecahan-10k-28635412</t>
+          <t>http://www.elevenia.co.id/prd-freedom-30gb-28879946</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rp 10.000</t>
+          <t>Rp 100.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2809,28 +3245,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lobster Laut Beku / Frozen Sea Lobster 500gr</t>
+          <t>Indosat Internet Unlimited   2GB, 30 hari</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-lobster-laut-beku-frozen-sea-lobster-500gr-29260652</t>
+          <t>http://www.elevenia.co.id/prd-indosat-internet-unlimited-2gb-30-hari-23635882</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rp 79.900</t>
+          <t>Rp 40.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2840,32 +3273,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[Free Ongkir] BUY1GET1 Grab Bag / Kantong Belanjaan Supermarket</t>
+          <t>Indosat Freedom Combo M Kuota 12GB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-free-ongkir-buy1get1-grab-bag-kantong-belanjaan-supermarket-13281745</t>
+          <t>http://www.elevenia.co.id/prd-indosat-freedom-combo-m-kuota-12gb-16996916</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rp 20.000</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 65.000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2875,17 +3301,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SOREX - Celana dalam Wanita SOREX art 1230</t>
+          <t>Celana pendek santai pria wanita/Celana Pendek Unisex/Pakaian Pria/Celana Pendek bahan Babyterry</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-sorex-celana-dalam-wanita-sorex-art-1230-15170993</t>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-santai-pria-wanita-celana-pendek-unisex-pakaia-26209421</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rp 12.000</t>
+          <t>Rp 22.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2895,12 +3321,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2910,32 +3341,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[HERBAL] Jelly Gamat Luxor 350ml Original</t>
+          <t>Celana Pendek Pria 7/8 Katun Kantong Jumbo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-herbal-jelly-gamat-luxor-350ml-original-14471099</t>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-7-8-katun-kantong-jumbo-29276974</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rp 184.800</t>
+          <t>Rp 20.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -2945,22 +3373,39 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Qurban Kambing (1/7 Sapi) Ternaknesia Reguler</t>
+          <t>Kabel Jupiter 34 SNI - Stop Kontak Kabel 3 Meter SNI 4 Lubang Ada ON/OFF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-qurban-kambing-1-7-sapi-ternaknesia-reguler-29189245</t>
+          <t>http://www.elevenia.co.id/prd-kabel-jupiter-34-sni-stop-kontak-kabel-3-meter-sni-4-lubang-28761807</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Rp 1.600.000</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+          <t>Rp 22.000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2968,26 +3413,39 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Voucher Hypermart Nominal Rp. 1.000.000,-</t>
+          <t>Celana pendek pria SERBA POLOS / 5 warna [Calista]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-voucher-hypermart-nominal-rp-1-000-000-29118737</t>
+          <t>http://www.elevenia.co.id/prd-celana-pendek-pria-serba-polos-5-warna-calista-16267044</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rp 1.042.000</t>
+          <t>Rp 14.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2995,32 +3453,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IK16 Korea Pearl Fashion Hair Pin Jepit Rambut</t>
+          <t>[Free Ongkir] Tas Belanja Baggu Eco Shopping Bag Kantong Belanjaan Multifungsi 1pcs</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-ik16-korea-pearl-fashion-hair-pin-jepit-rambut-29267971</t>
+          <t>http://www.elevenia.co.id/prd-free-ongkir-tas-belanja-baggu-eco-shopping-bag-kantong-bela-12473981</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rp 2.500</t>
+          <t>Rp 9.900</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -3030,22 +3485,39 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SIMPATI 5.000</t>
+          <t>SOREX - Celana dalam Wanita SOREX art 1230</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-simpati-5-000-27801036</t>
+          <t>http://www.elevenia.co.id/prd-sorex-celana-dalam-wanita-sorex-art-1230-15170993</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rp 5.900</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+          <t>Rp 12.000</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3053,28 +3525,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Xtra Combo 5GB 5GB, 30hr</t>
+          <t>Voucher Hypermart Nominal Rp. 1.000.000,-</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-xtra-combo-5gb-5gb-30hr-23600522</t>
+          <t>http://www.elevenia.co.id/prd-voucher-hypermart-nominal-rp-1-000-000-29118737</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rp 57.200</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Rp 1.042.000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -3084,22 +3557,39 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Scarlett Whitening Body Lotion</t>
+          <t>IK16 Korea Pearl Fashion Hair Pin Jepit Rambut</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-scarlett-whitening-body-lotion-29119406</t>
+          <t>http://www.elevenia.co.id/prd-ik16-korea-pearl-fashion-hair-pin-jepit-rambut-29267971</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+          <t>Rp 2.500</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3107,22 +3597,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Erha Acne Facial Mask 4 pcs - Masker Wajah Jerawat</t>
+          <t>XL Paket Xtra Combo Kuota 10GB (5GB + 5GB) BACA Rincian Produk/Detail Produk [MULLIACELL] XDC6</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-erha-acne-facial-mask-4-pcs-masker-wajah-jerawat-29259903</t>
+          <t>http://www.elevenia.co.id/prd-xl-paket-xtra-combo-kuota-10gb-5gb-5gb-baca-rincian-produk-d-13464305</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rp 90.500</t>
+          <t>Rp 56.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3130,32 +3629,33 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Neckermann Sandal Pria Fresno 772 Black</t>
+          <t>CELANA CHINO JUMBO PRIA| BEST SELLER !! HIGH QUALITY</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-neckermann-sandal-pria-fresno-772-black-24190430</t>
+          <t>http://www.elevenia.co.id/prd-celana-chino-jumbo-pria-best-seller-high-quality-15135771</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rp 66.000</t>
+          <t>Rp 79.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -3165,22 +3665,35 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cute Baby Wrap - Bedong Bayi Lucu - Kain Bedong Instant</t>
+          <t>Xtra Combo 5GB 5GB, 30hr</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>http://www.elevenia.co.id/prd-cute-baby-wrap-bedong-bayi-lucu-kain-bedong-instant-29276176</t>
+          <t>http://www.elevenia.co.id/prd-xtra-combo-5gb-5gb-30hr-23600522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rp 90.000</t>
+          <t>Rp 57.200</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
